--- a/Annexes/Modèle-audit-SEO.xlsx
+++ b/Annexes/Modèle-audit-SEO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anissa.bougoufa\Documents\P4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anissa.bougoufa\Documents\P4\Annexes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982D5047-27CB-4D35-B40D-3E1C534910F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8EB05E-5BA2-4631-9EF8-333AF48AB4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="76">
   <si>
     <t>Catégorie</t>
   </si>
@@ -198,9 +198,6 @@
     <t>Langue du contenu HTML</t>
   </si>
   <si>
-    <t>La langue du document HTML est réglé par défaut . Les personnes non-voyantes risquent de ne pas pouvoir lire notre docuement.</t>
-  </si>
-  <si>
     <t>Nous devons nous assurer que le la langue du document HTML soit cohérente par rapport à notre contenu. Il sera plus facilementlisible pour les personnes utilisant des lecteurs d'écrans.</t>
   </si>
   <si>
@@ -208,12 +205,6 @@
   </si>
   <si>
     <t>Openclassroom cours créer un site web accessibilité chapitre "Découvrez les exigences du WCAG"</t>
-  </si>
-  <si>
-    <t>l'analyse sur les fichiers js, les erreurs du css, l'optimisation des fichiers</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> JS  les bibliothèques ne sont pas à jour, qu'il faut minifier les fichiers, je crois qu'il comporte des erreurs et la bonne pratique pour ne pas bloquer le rendu de la page est de mettre les scripts avant la balise fermante du body</t>
   </si>
   <si>
     <t>Rien n'est pas spécifié dans la balise "title"</t>
@@ -278,12 +269,18 @@
   <si>
     <t>MEDIA Queries MDN</t>
   </si>
+  <si>
+    <t>La langue du document HTML est réglé par défaut . Les personnes non-voyantes risquent de ne pas pouvoir lire notre document.</t>
+  </si>
+  <si>
+    <t>Aujourd'hui, le concept des balises meta de mots-clés est totalement désuet. Les moteurs de recherches ont jugé nécessaire de la retirer de leurs critères de positionnement. Altavista aurait cessé de l'utiliser au début des années 2000. Et pour cause, de plus en plus de sites se sont mis à faire du « keyword stuffing » (bourrage de mots-clés) pour tenter de manipuler les robots de classement du moteur.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -318,12 +315,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -365,9 +356,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -387,11 +378,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -610,11 +597,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1005"/>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -625,7 +612,7 @@
     <col min="4" max="4" width="31.08984375" style="3" customWidth="1"/>
     <col min="5" max="5" width="24" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.26953125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.7265625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="48.90625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="26" width="10.54296875" style="3" customWidth="1"/>
     <col min="27" max="16384" width="11.26953125" style="3"/>
   </cols>
@@ -686,8 +673,11 @@
       <c r="E2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="7" t="s">
         <v>11</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -695,7 +685,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>12</v>
@@ -706,7 +696,7 @@
       <c r="E3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -726,7 +716,7 @@
       <c r="E4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -746,7 +736,7 @@
       <c r="E5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -766,7 +756,7 @@
       <c r="E6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -786,8 +776,8 @@
       <c r="E7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>76</v>
+      <c r="F7" s="7" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="75" x14ac:dyDescent="0.25">
@@ -806,7 +796,7 @@
       <c r="E8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="7" t="s">
         <v>40</v>
       </c>
     </row>
@@ -826,13 +816,13 @@
       <c r="E9" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>46</v>
@@ -846,155 +836,140 @@
       <c r="E10" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="135" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>51</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>60</v>
+      <c r="G11" s="7" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="234" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="195" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>59</v>
+        <v>63</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="124.8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>59</v>
+        <v>65</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="249.6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>59</v>
+        <v>69</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E16" s="6"/>
-      <c r="F16" s="9" t="s">
-        <v>75</v>
+      <c r="F16" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1963,11 +1938,6 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F12" r:id="rId1" xr:uid="{FDC2ADFD-889E-4280-88BB-1ACF31A2BE48}"/>
@@ -1984,8 +1954,9 @@
     <hyperlink ref="F8" r:id="rId12" xr:uid="{9A057B8A-43CF-4B66-B293-6B617C9F9706}"/>
     <hyperlink ref="F9" r:id="rId13" xr:uid="{268CB10C-E419-47DF-8561-93B102B90D96}"/>
     <hyperlink ref="F10" r:id="rId14" xr:uid="{641C9A33-0FF0-4FC2-959A-086A1866FE0A}"/>
+    <hyperlink ref="G2" r:id="rId15" display="https://www.semjuice.com/definition/keyword-stuffing" xr:uid="{A0122EF1-CDAE-409D-ADC7-8514904B3BB1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId15"/>
+  <pageSetup orientation="landscape" r:id="rId16"/>
 </worksheet>
 </file>